--- a/Documentatie/3. Contsruction Phase/Normalisatie.xlsx
+++ b/Documentatie/3. Contsruction Phase/Normalisatie.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentatie/3. Contsruction Phase/Normalisatie.xlsx
+++ b/Documentatie/3. Contsruction Phase/Normalisatie.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BarrocIT\Documentatie\3. Contsruction Phase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/BarrocIT/Documentatie/3. Contsruction Phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -183,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,20 +467,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,7 +520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -554,7 +557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -565,7 +568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -579,7 +582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -593,7 +596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -604,7 +607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -615,7 +618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -623,7 +626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -631,7 +634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -639,12 +642,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -652,7 +655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -660,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -668,127 +671,127 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
